--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H2">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I2">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J2">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N2">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O2">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P2">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q2">
-        <v>18.29694946162983</v>
+        <v>20.09446648167256</v>
       </c>
       <c r="R2">
-        <v>18.29694946162983</v>
+        <v>180.850198335053</v>
       </c>
       <c r="S2">
-        <v>0.001597558666274185</v>
+        <v>0.001388244992770197</v>
       </c>
       <c r="T2">
-        <v>0.001597558666274185</v>
+        <v>0.001517462015309376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H3">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I3">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J3">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N3">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O3">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P3">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q3">
-        <v>28.01784933461738</v>
+        <v>30.32024217329144</v>
       </c>
       <c r="R3">
-        <v>28.01784933461738</v>
+        <v>272.882179559623</v>
       </c>
       <c r="S3">
-        <v>0.002446318065683465</v>
+        <v>0.002094702261194251</v>
       </c>
       <c r="T3">
-        <v>0.002446318065683465</v>
+        <v>0.002289675908286247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H4">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I4">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J4">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N4">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O4">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P4">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q4">
-        <v>110.3523212685659</v>
+        <v>142.9756292752501</v>
       </c>
       <c r="R4">
-        <v>110.3523212685659</v>
+        <v>1286.780663477251</v>
       </c>
       <c r="S4">
-        <v>0.009635174844624997</v>
+        <v>0.009877604942164804</v>
       </c>
       <c r="T4">
-        <v>0.009635174844624997</v>
+        <v>0.01079700656586373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H5">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I5">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J5">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N5">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O5">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P5">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q5">
-        <v>90.47747830226864</v>
+        <v>107.9052492217127</v>
       </c>
       <c r="R5">
-        <v>90.47747830226864</v>
+        <v>971.1472429954141</v>
       </c>
       <c r="S5">
-        <v>0.00789984581132184</v>
+        <v>0.007454734967076086</v>
       </c>
       <c r="T5">
-        <v>0.00789984581132184</v>
+        <v>0.008148617287041878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H6">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I6">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J6">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9818618476871</v>
+        <v>11.1389315</v>
       </c>
       <c r="N6">
-        <v>10.9818618476871</v>
+        <v>22.277863</v>
       </c>
       <c r="O6">
-        <v>0.07405392797187098</v>
+        <v>0.06331058615409579</v>
       </c>
       <c r="P6">
-        <v>0.07405392797187098</v>
+        <v>0.04311697781563077</v>
       </c>
       <c r="Q6">
-        <v>19.76576048972846</v>
+        <v>20.36448789349616</v>
       </c>
       <c r="R6">
-        <v>19.76576048972846</v>
+        <v>122.186927360977</v>
       </c>
       <c r="S6">
-        <v>0.001725804732208777</v>
+        <v>0.001406899674308856</v>
       </c>
       <c r="T6">
-        <v>0.001725804732208777</v>
+        <v>0.001025235375712114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H7">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I7">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J7">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N7">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O7">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P7">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q7">
-        <v>610.58611327528</v>
+        <v>695.8725731476698</v>
       </c>
       <c r="R7">
-        <v>610.58611327528</v>
+        <v>6262.853158329028</v>
       </c>
       <c r="S7">
-        <v>0.0533120091310951</v>
+        <v>0.04807500692588464</v>
       </c>
       <c r="T7">
-        <v>0.0533120091310951</v>
+        <v>0.05254980012583501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H8">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I8">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J8">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N8">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O8">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P8">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q8">
-        <v>934.9815259331516</v>
+        <v>1049.991795444406</v>
       </c>
       <c r="R8">
-        <v>934.9815259331516</v>
+        <v>9449.926158999659</v>
       </c>
       <c r="S8">
-        <v>0.08163589469890331</v>
+        <v>0.0725396642804601</v>
       </c>
       <c r="T8">
-        <v>0.08163589469890331</v>
+        <v>0.07929161331188321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H9">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I9">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J9">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N9">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O9">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P9">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q9">
-        <v>3682.558946538006</v>
+        <v>4951.254572094233</v>
       </c>
       <c r="R9">
-        <v>3682.558946538006</v>
+        <v>44561.2911488481</v>
       </c>
       <c r="S9">
-        <v>0.3215346892357476</v>
+        <v>0.3420620484703829</v>
       </c>
       <c r="T9">
-        <v>0.3215346892357476</v>
+        <v>0.3739009815529328</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H10">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I10">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J10">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N10">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O10">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P10">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q10">
-        <v>3019.317068748667</v>
+        <v>3736.765218451515</v>
       </c>
       <c r="R10">
-        <v>3019.317068748667</v>
+        <v>33630.88696606363</v>
       </c>
       <c r="S10">
-        <v>0.2636251556317815</v>
+        <v>0.2581579166784308</v>
       </c>
       <c r="T10">
-        <v>0.2636251556317815</v>
+        <v>0.282187102817643</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H11">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I11">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J11">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9818618476871</v>
+        <v>11.1389315</v>
       </c>
       <c r="N11">
-        <v>10.9818618476871</v>
+        <v>22.277863</v>
       </c>
       <c r="O11">
-        <v>0.07405392797187098</v>
+        <v>0.06331058615409579</v>
       </c>
       <c r="P11">
-        <v>0.07405392797187098</v>
+        <v>0.04311697781563077</v>
       </c>
       <c r="Q11">
-        <v>659.6016947340006</v>
+        <v>705.2234307492905</v>
       </c>
       <c r="R11">
-        <v>659.6016947340006</v>
+        <v>4231.340584495743</v>
       </c>
       <c r="S11">
-        <v>0.0575916988742438</v>
+        <v>0.0487210196605545</v>
       </c>
       <c r="T11">
-        <v>0.0575916988742438</v>
+        <v>0.03550396222907952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>15.3687312588031</v>
+        <v>0.4007523333333333</v>
       </c>
       <c r="H12">
-        <v>15.3687312588031</v>
+        <v>1.202257</v>
       </c>
       <c r="I12">
-        <v>0.1989958503081155</v>
+        <v>0.004871165601616667</v>
       </c>
       <c r="J12">
-        <v>0.1989958503081155</v>
+        <v>0.005212203580597617</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N12">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O12">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P12">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q12">
-        <v>156.2352952376612</v>
+        <v>4.404763339633223</v>
       </c>
       <c r="R12">
-        <v>156.2352952376612</v>
+        <v>39.642870056699</v>
       </c>
       <c r="S12">
-        <v>0.01364134772346901</v>
+        <v>0.000304307191044894</v>
       </c>
       <c r="T12">
-        <v>0.01364134772346901</v>
+        <v>0.0003326319243368307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>15.3687312588031</v>
+        <v>0.4007523333333333</v>
       </c>
       <c r="H13">
-        <v>15.3687312588031</v>
+        <v>1.202257</v>
       </c>
       <c r="I13">
-        <v>0.1989958503081155</v>
+        <v>0.004871165601616667</v>
       </c>
       <c r="J13">
-        <v>0.1989958503081155</v>
+        <v>0.005212203580597617</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N13">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O13">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P13">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q13">
-        <v>239.2408074306576</v>
+        <v>6.646282014778778</v>
       </c>
       <c r="R13">
-        <v>239.2408074306576</v>
+        <v>59.816538133009</v>
       </c>
       <c r="S13">
-        <v>0.02088879493484895</v>
+        <v>0.0004591646031493578</v>
       </c>
       <c r="T13">
-        <v>0.02088879493484895</v>
+        <v>0.0005019033727349401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>15.3687312588031</v>
+        <v>0.4007523333333333</v>
       </c>
       <c r="H14">
-        <v>15.3687312588031</v>
+        <v>1.202257</v>
       </c>
       <c r="I14">
-        <v>0.1989958503081155</v>
+        <v>0.004871165601616667</v>
       </c>
       <c r="J14">
-        <v>0.1989958503081155</v>
+        <v>0.005212203580597617</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N14">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O14">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P14">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q14">
-        <v>942.284260538143</v>
+        <v>31.34065842788144</v>
       </c>
       <c r="R14">
-        <v>942.284260538143</v>
+        <v>282.065925850933</v>
       </c>
       <c r="S14">
-        <v>0.08227351721516867</v>
+        <v>0.002165198671599966</v>
       </c>
       <c r="T14">
-        <v>0.08227351721516867</v>
+        <v>0.002366734082861664</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>15.3687312588031</v>
+        <v>0.4007523333333333</v>
       </c>
       <c r="H15">
-        <v>15.3687312588031</v>
+        <v>1.202257</v>
       </c>
       <c r="I15">
-        <v>0.1989958503081155</v>
+        <v>0.004871165601616667</v>
       </c>
       <c r="J15">
-        <v>0.1989958503081155</v>
+        <v>0.005212203580597617</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N15">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O15">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P15">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q15">
-        <v>772.575535859564</v>
+        <v>23.65313288408467</v>
       </c>
       <c r="R15">
-        <v>772.575535859564</v>
+        <v>212.878195956762</v>
       </c>
       <c r="S15">
-        <v>0.06745576606921051</v>
+        <v>0.001634098786330429</v>
       </c>
       <c r="T15">
-        <v>0.06745576606921051</v>
+        <v>0.001786199734509004</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4007523333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.202257</v>
+      </c>
+      <c r="I16">
+        <v>0.004871165601616667</v>
+      </c>
+      <c r="J16">
+        <v>0.005212203580597617</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.1389315</v>
+      </c>
+      <c r="N16">
+        <v>22.277863</v>
+      </c>
+      <c r="O16">
+        <v>0.06331058615409579</v>
+      </c>
+      <c r="P16">
+        <v>0.04311697781563077</v>
+      </c>
+      <c r="Q16">
+        <v>4.463952789465167</v>
+      </c>
+      <c r="R16">
+        <v>26.783716736791</v>
+      </c>
+      <c r="S16">
+        <v>0.0003083963494920199</v>
+      </c>
+      <c r="T16">
+        <v>0.0002247344661551787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.742233</v>
+      </c>
+      <c r="I17">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J17">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.99123566666667</v>
+      </c>
+      <c r="N17">
+        <v>32.973707</v>
+      </c>
+      <c r="O17">
+        <v>0.06247112414817082</v>
+      </c>
+      <c r="P17">
+        <v>0.06381790718517791</v>
+      </c>
+      <c r="Q17">
+        <v>6.383097829747891</v>
+      </c>
+      <c r="R17">
+        <v>57.44788046773101</v>
+      </c>
+      <c r="S17">
+        <v>0.0004409822778122472</v>
+      </c>
+      <c r="T17">
+        <v>0.0004820286473134526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.742233</v>
+      </c>
+      <c r="I18">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J18">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>16.58451233333333</v>
+      </c>
+      <c r="N18">
+        <v>49.753537</v>
+      </c>
+      <c r="O18">
+        <v>0.09426175184784683</v>
+      </c>
+      <c r="P18">
+        <v>0.09629389277948987</v>
+      </c>
+      <c r="Q18">
+        <v>9.631361558680112</v>
+      </c>
+      <c r="R18">
+        <v>86.68225402812101</v>
+      </c>
+      <c r="S18">
+        <v>0.0006653916126408208</v>
+      </c>
+      <c r="T18">
+        <v>0.0007273258702507974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.742233</v>
+      </c>
+      <c r="I19">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J19">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>78.20455633333331</v>
+      </c>
+      <c r="N19">
+        <v>234.613669</v>
+      </c>
+      <c r="O19">
+        <v>0.4444929301687811</v>
+      </c>
+      <c r="P19">
+        <v>0.4540755260734272</v>
+      </c>
+      <c r="Q19">
+        <v>45.41685293143077</v>
+      </c>
+      <c r="R19">
+        <v>408.751676382877</v>
+      </c>
+      <c r="S19">
+        <v>0.00313766572140368</v>
+      </c>
+      <c r="T19">
+        <v>0.003429717790278057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.742233</v>
+      </c>
+      <c r="I20">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J20">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>59.02182200000001</v>
+      </c>
+      <c r="N20">
+        <v>177.065466</v>
+      </c>
+      <c r="O20">
+        <v>0.3354636076811054</v>
+      </c>
+      <c r="P20">
+        <v>0.3426956961462742</v>
+      </c>
+      <c r="Q20">
+        <v>34.27658866950868</v>
+      </c>
+      <c r="R20">
+        <v>308.489298025578</v>
+      </c>
+      <c r="S20">
+        <v>0.002368030155619658</v>
+      </c>
+      <c r="T20">
+        <v>0.00258844500140388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.742233</v>
+      </c>
+      <c r="I21">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J21">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.1389315</v>
+      </c>
+      <c r="N21">
+        <v>22.277863</v>
+      </c>
+      <c r="O21">
+        <v>0.06331058615409579</v>
+      </c>
+      <c r="P21">
+        <v>0.04311697781563077</v>
+      </c>
+      <c r="Q21">
+        <v>6.468871348013168</v>
+      </c>
+      <c r="R21">
+        <v>38.813228088079</v>
+      </c>
+      <c r="S21">
+        <v>0.0004469080214667333</v>
+      </c>
+      <c r="T21">
+        <v>0.0003256706371207949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.149006</v>
+      </c>
+      <c r="H22">
+        <v>32.298012</v>
+      </c>
+      <c r="I22">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J22">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.99123566666667</v>
+      </c>
+      <c r="N22">
+        <v>32.973707</v>
+      </c>
+      <c r="O22">
+        <v>0.06247112414817082</v>
+      </c>
+      <c r="P22">
+        <v>0.06381790718517791</v>
+      </c>
+      <c r="Q22">
+        <v>177.497530728414</v>
+      </c>
+      <c r="R22">
+        <v>1064.985184370484</v>
+      </c>
+      <c r="S22">
+        <v>0.01226258276065884</v>
+      </c>
+      <c r="T22">
+        <v>0.008935984472383234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.149006</v>
+      </c>
+      <c r="H23">
+        <v>32.298012</v>
+      </c>
+      <c r="I23">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J23">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.58451233333333</v>
+      </c>
+      <c r="N23">
+        <v>49.753537</v>
+      </c>
+      <c r="O23">
+        <v>0.09426175184784683</v>
+      </c>
+      <c r="P23">
+        <v>0.09629389277948987</v>
+      </c>
+      <c r="Q23">
+        <v>267.823389178074</v>
+      </c>
+      <c r="R23">
+        <v>1606.940335068444</v>
+      </c>
+      <c r="S23">
+        <v>0.0185028290904023</v>
+      </c>
+      <c r="T23">
+        <v>0.01348337431633467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>15.3687312588031</v>
-      </c>
-      <c r="H16">
-        <v>15.3687312588031</v>
-      </c>
-      <c r="I16">
-        <v>0.1989958503081155</v>
-      </c>
-      <c r="J16">
-        <v>0.1989958503081155</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.9818618476871</v>
-      </c>
-      <c r="N16">
-        <v>10.9818618476871</v>
-      </c>
-      <c r="O16">
-        <v>0.07405392797187098</v>
-      </c>
-      <c r="P16">
-        <v>0.07405392797187098</v>
-      </c>
-      <c r="Q16">
-        <v>168.7772834584059</v>
-      </c>
-      <c r="R16">
-        <v>168.7772834584059</v>
-      </c>
-      <c r="S16">
-        <v>0.01473642436541841</v>
-      </c>
-      <c r="T16">
-        <v>0.01473642436541841</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.149006</v>
+      </c>
+      <c r="H24">
+        <v>32.298012</v>
+      </c>
+      <c r="I24">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J24">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>78.20455633333331</v>
+      </c>
+      <c r="N24">
+        <v>234.613669</v>
+      </c>
+      <c r="O24">
+        <v>0.4444929301687811</v>
+      </c>
+      <c r="P24">
+        <v>0.4540755260734272</v>
+      </c>
+      <c r="Q24">
+        <v>1262.925849454338</v>
+      </c>
+      <c r="R24">
+        <v>7577.555096726027</v>
+      </c>
+      <c r="S24">
+        <v>0.08725041236322986</v>
+      </c>
+      <c r="T24">
+        <v>0.06358108608149091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.149006</v>
+      </c>
+      <c r="H25">
+        <v>32.298012</v>
+      </c>
+      <c r="I25">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J25">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>59.02182200000001</v>
+      </c>
+      <c r="N25">
+        <v>177.065466</v>
+      </c>
+      <c r="O25">
+        <v>0.3354636076811054</v>
+      </c>
+      <c r="P25">
+        <v>0.3426956961462742</v>
+      </c>
+      <c r="Q25">
+        <v>953.1437576089321</v>
+      </c>
+      <c r="R25">
+        <v>5718.862545653593</v>
+      </c>
+      <c r="S25">
+        <v>0.06584882709364842</v>
+      </c>
+      <c r="T25">
+        <v>0.04798533130567641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.149006</v>
+      </c>
+      <c r="H26">
+        <v>32.298012</v>
+      </c>
+      <c r="I26">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J26">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.1389315</v>
+      </c>
+      <c r="N26">
+        <v>22.277863</v>
+      </c>
+      <c r="O26">
+        <v>0.06331058615409579</v>
+      </c>
+      <c r="P26">
+        <v>0.04311697781563077</v>
+      </c>
+      <c r="Q26">
+        <v>179.882671627089</v>
+      </c>
+      <c r="R26">
+        <v>719.530686508356</v>
+      </c>
+      <c r="S26">
+        <v>0.01242736244827369</v>
+      </c>
+      <c r="T26">
+        <v>0.006037375107563155</v>
       </c>
     </row>
   </sheetData>
